--- a/code/src/main/resources/templet/sensors.xlsx
+++ b/code/src/main/resources/templet/sensors.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\SmartSystem\code\src\main\resources\templet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\work\SmartSystem\code\src\main\resources\templet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28C5D04-D5F8-4B2E-8F44-ACDD4CEFDA0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDDBE6-1BF6-4FB9-BAB5-9564C4AFCB9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B204EC48-8ACD-43FF-8884-2C5619D64EB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B204EC48-8ACD-43FF-8884-2C5619D64EB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="人员列表" sheetId="1" r:id="rId1"/>
+    <sheet name="传感器列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -111,7 +111,7 @@
         <b/>
         <sz val="18"/>
         <color theme="0"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -179,7 +179,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,14 +188,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -239,7 +239,7 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -336,7 +336,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -654,7 +654,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -663,7 +663,7 @@
     <col min="5" max="5" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5" ht="24.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
